--- a/Data/Statistik.xlsx
+++ b/Data/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feuerwehr Lengenfeld\Documents\Flobo\2022\Florianibote2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F15C2EB-F2A8-454D-8364-A8AD7F4FC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B3211-21C1-4FCB-AC6C-069D26BA5FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Testen!$K$7:$K$9</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Testen!$L$7:$L$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Testen!$K$7:$K$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Testen!$L$7:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2946,7 +2944,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="250960" y="6455794"/>
-          <a:ext cx="4612175" cy="2357794"/>
+          <a:ext cx="4639629" cy="2357794"/>
           <a:chOff x="184180" y="5025362"/>
           <a:chExt cx="4640787" cy="2357794"/>
         </a:xfrm>
@@ -3248,8 +3246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3476625" y="1852028"/>
-          <a:ext cx="2399807" cy="1605643"/>
+          <a:off x="3496235" y="1852028"/>
+          <a:ext cx="2411573" cy="1605643"/>
           <a:chOff x="3291565" y="449036"/>
           <a:chExt cx="2382613" cy="1605643"/>
         </a:xfrm>
@@ -3393,8 +3391,8 @@
       <xdr:rowOff>179658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>642886</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>5874</xdr:rowOff>
     </xdr:to>
@@ -3411,10 +3409,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1145892" y="4561158"/>
-          <a:ext cx="4097569" cy="1540716"/>
+          <a:off x="1149814" y="4561158"/>
+          <a:ext cx="4225087" cy="1540716"/>
           <a:chOff x="2201586" y="4088430"/>
-          <a:chExt cx="4117572" cy="1540716"/>
+          <a:chExt cx="4218124" cy="1540716"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3431,7 +3429,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4221415" y="4088430"/>
-            <a:ext cx="2097743" cy="276225"/>
+            <a:ext cx="2198295" cy="276225"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3469,7 +3467,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>5 Brandsicherheitswache</a:t>
+              <a:t>5 Brandsicherheitswachen</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3638,7 +3636,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="131414" y="225852"/>
-          <a:ext cx="5191125" cy="2934937"/>
+          <a:ext cx="5222501" cy="2934937"/>
           <a:chOff x="0" y="278469"/>
           <a:chExt cx="5191125" cy="2934937"/>
         </a:xfrm>
@@ -3942,7 +3940,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>67</a:t>
+              <a:t>68</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AT" sz="1400" baseline="0">
@@ -4807,7 +4805,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>27</a:t>
+            <a:t>26</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-AT" sz="1400" baseline="0">
@@ -4963,6 +4961,128 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>248861</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>250961</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8906A2-C5A6-427D-B2EA-FC2E9DD94E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="248861" y="4410439"/>
+          <a:ext cx="1985541" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="de-AT" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 Schadstoffeinsatz</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423047</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358688</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Grafik 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2796159A-2DED-F34D-DF4D-773D76649225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1084194" y="3843618"/>
+          <a:ext cx="596788" cy="590182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5444,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5547,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
